--- a/TestData/LLP Sample File.xlsx
+++ b/TestData/LLP Sample File.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Snehal\ComplianceLatest\Secretarial-Project-main\Secretarial-Project-main\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="420" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16035" windowHeight="6075" tabRatio="420" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Entity Master - LLP" sheetId="1" r:id="rId1"/>
@@ -18,7 +13,8 @@
     <sheet name="Body corporate as Partner" sheetId="5" r:id="rId4"/>
     <sheet name="Data_ROC" sheetId="4" state="hidden" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:E16"/>
 </workbook>
 </file>
 
@@ -2249,7 +2245,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
